--- a/pred_ohlcv/54_21/2020-01-26 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 APIS ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-22626579.5113</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-22626579.5113</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-22625671.7851</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-24044746.5077</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-21766626.15443023</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-20976771.89703023</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-20097078.56943023</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-23828771.29733023</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-19700524.30923023</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-18977573.54443023</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-22898099.11397109</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-22333823.63947109</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-18123725.11627109</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>8782048.702228202</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>8541311.0169282</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10818124.0390282</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>8992274.7349282</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>6527820.0377282</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5371700.712828199</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 APIS ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-22625671.7851</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-24044746.5077</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-21766626.15443023</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-20976771.89703023</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-20975862.69863023</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-20097078.56943023</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-20220099.76623023</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-20219228.40023023</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-21075714.68483023</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-22934665.37613023</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-23829681.06443023</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-23829681.06443023</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-23828771.29733023</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-25443175.78373023</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-25442269.84793023</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-27458927.61213023</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-26910289.38923023</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-19700524.30923023</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-18977573.54443023</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-22898099.11397109</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-22333823.63947109</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-18123725.11627109</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>8782048.702228202</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>4484598.702228202</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10818124.0390282</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>8992274.7349282</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>6527820.0377282</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>8072990.3119282</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5371700.712828199</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
